--- a/test/Setting/data/示例.xlsx
+++ b/test/Setting/data/示例.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\projects\GDExcelExporter\src\excelexporter\template\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\projects\GDExcelExporter\test\Setting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84324DEE-7A54-4334-B714-5007EA47FBE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6A0586-0528-4F25-9414-935D489266B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8985" yWindow="5055" windowWidth="37275" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>int</t>
   </si>
@@ -267,6 +267,30 @@
   </si>
   <si>
     <t>这个字段没命名，不导出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#array_str</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a|b|c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#dict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr_array_str</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr_dict</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -712,10 +736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -728,9 +752,11 @@
     <col min="12" max="12" width="64.875" customWidth="1"/>
     <col min="13" max="13" width="15.5" customWidth="1"/>
     <col min="14" max="14" width="26.75" customWidth="1"/>
+    <col min="15" max="15" width="23.25" customWidth="1"/>
+    <col min="16" max="16" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -773,8 +799,14 @@
       <c r="N1" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="O1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -817,8 +849,14 @@
       <c r="N2" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="O2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -859,8 +897,14 @@
         <v>45</v>
       </c>
       <c r="N3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -903,8 +947,14 @@
       <c r="N4" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="O4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -912,7 +962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3.01</v>
       </c>
@@ -937,8 +987,14 @@
       <c r="I6" t="s">
         <v>23</v>
       </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4.5</v>
       </c>
@@ -952,7 +1008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="57" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -964,7 +1020,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
